--- a/docs/SubledgerE2E_GL_Testing.xlsx
+++ b/docs/SubledgerE2E_GL_Testing.xlsx
@@ -14,6 +14,9 @@
     <sheet name="SubledgerMapping" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="ChartOfAccount" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">SubledgerMapping!$A$1:$D$335</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="262">
   <si>
     <t xml:space="preserve">System Generated</t>
   </si>
@@ -803,16 +806,21 @@
     <t xml:space="preserve">AccountNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">ProductName</t>
+    <t xml:space="preserve">ProductType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -820,6 +828,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -842,6 +851,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -927,7 +937,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -976,10 +986,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,7 +995,28 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1118,12 +1145,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.66"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1143,7 +1170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="str">
         <f aca="false">CONCATENATE(C3,F3,E3)</f>
         <v>Revenueamount&gt;1Dr</v>
@@ -1164,7 +1191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="str">
         <f aca="false">CONCATENATE(C4,F4,E4)</f>
         <v>Revenueamount&gt;1Cr</v>
@@ -1185,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="str">
         <f aca="false">CONCATENATE(C5,F5,E5)</f>
         <v>Revenueamount&lt;1Dr</v>
@@ -1206,7 +1233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="str">
         <f aca="false">CONCATENATE(C6,F6,E6)</f>
         <v>Revenueamount&lt;1Cr</v>
@@ -1227,7 +1254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="str">
         <f aca="false">CONCATENATE(C7,F7,E7)</f>
         <v>Deferred Revenueamount&gt;1Dr</v>
@@ -1248,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="str">
         <f aca="false">CONCATENATE(C8,F8,E8)</f>
         <v>Deferred Revenueamount&gt;1Cr</v>
@@ -1269,7 +1296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="str">
         <f aca="false">CONCATENATE(C9,F9,E9)</f>
         <v>Deferred Revenueamount&lt;1Dr</v>
@@ -1290,7 +1317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="str">
         <f aca="false">CONCATENATE(C10,F10,E10)</f>
         <v>Deferred Revenueamount&lt;1Cr</v>
@@ -1311,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="str">
         <f aca="false">CONCATENATE(C11,F11,E11)</f>
         <v>A/Ramount&gt;1Dr</v>
@@ -1332,7 +1359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="str">
         <f aca="false">CONCATENATE(C12,F12,E12)</f>
         <v>A/Ramount&gt;1Cr</v>
@@ -1353,7 +1380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="str">
         <f aca="false">CONCATENATE(C13,F13,E13)</f>
         <v>A/Ramount&lt;1Dr</v>
@@ -1374,7 +1401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="str">
         <f aca="false">CONCATENATE(C14,F14,E14)</f>
         <v>A/Ramount&lt;1Cr</v>
@@ -1395,7 +1422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="str">
         <f aca="false">CONCATENATE(C15,D15,E15)</f>
         <v/>
@@ -1428,7 +1455,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="8.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
@@ -1446,7 +1473,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1460,7 +1487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1474,8 +1501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
@@ -1494,7 +1520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1509,8 +1535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
@@ -1529,7 +1554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1545,7 +1570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1565,7 +1590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="n">
         <v>3</v>
       </c>
@@ -1588,7 +1613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1639,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="4" t="n">
         <f aca="false">O12</f>
         <v>200</v>
@@ -1633,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
@@ -1661,7 +1686,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1688,7 +1713,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K16" s="4" t="n">
         <f aca="false">N15</f>
         <v>700</v>
@@ -1702,7 +1727,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
@@ -1731,7 +1756,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1758,7 +1783,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K19" s="4" t="n">
         <f aca="false">N18</f>
         <v>400</v>
@@ -1772,7 +1797,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K20" s="4" t="n">
         <f aca="false">N19</f>
         <v>300</v>
@@ -1786,7 +1811,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1812,7 +1837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
@@ -1843,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="n">
         <v>2</v>
       </c>
@@ -1863,7 +1888,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="n">
         <v>3</v>
       </c>
@@ -1885,7 +1910,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="n">
         <f aca="false">SUM(C22:C24)</f>
         <v>0</v>
@@ -1964,322 +1989,322 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2296,13 +2321,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A337" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A336" activeCellId="0" sqref="A336"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2326,7 +2351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>82</v>
       </c>
@@ -2340,7 +2365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>82</v>
       </c>
@@ -2354,7 +2379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>86</v>
       </c>
@@ -2368,7 +2393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>86</v>
       </c>
@@ -2382,7 +2407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>87</v>
       </c>
@@ -2396,7 +2421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>87</v>
       </c>
@@ -2410,7 +2435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>88</v>
       </c>
@@ -2424,7 +2449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>88</v>
       </c>
@@ -2438,7 +2463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>89</v>
       </c>
@@ -2452,7 +2477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>89</v>
       </c>
@@ -2466,7 +2491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>90</v>
       </c>
@@ -2480,7 +2505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>90</v>
       </c>
@@ -2494,7 +2519,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>91</v>
       </c>
@@ -2508,7 +2533,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>91</v>
       </c>
@@ -2522,7 +2547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>92</v>
       </c>
@@ -2536,7 +2561,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>92</v>
       </c>
@@ -2550,7 +2575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>93</v>
       </c>
@@ -2564,7 +2589,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
         <v>93</v>
       </c>
@@ -2578,7 +2603,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
         <v>95</v>
       </c>
@@ -2592,7 +2617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>95</v>
       </c>
@@ -2606,7 +2631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
         <v>96</v>
       </c>
@@ -2620,7 +2645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
         <v>96</v>
       </c>
@@ -2634,7 +2659,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>97</v>
       </c>
@@ -2648,7 +2673,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>97</v>
       </c>
@@ -2662,7 +2687,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>98</v>
       </c>
@@ -2676,7 +2701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>98</v>
       </c>
@@ -2690,7 +2715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>99</v>
       </c>
@@ -2704,7 +2729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>99</v>
       </c>
@@ -2718,7 +2743,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
         <v>100</v>
       </c>
@@ -2732,7 +2757,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
@@ -2746,7 +2771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
         <v>101</v>
       </c>
@@ -2760,7 +2785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>101</v>
       </c>
@@ -2774,7 +2799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
         <v>102</v>
       </c>
@@ -2788,7 +2813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
         <v>102</v>
       </c>
@@ -2802,7 +2827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
         <v>103</v>
       </c>
@@ -2816,7 +2841,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
         <v>103</v>
       </c>
@@ -2830,7 +2855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
         <v>104</v>
       </c>
@@ -2844,7 +2869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
         <v>104</v>
       </c>
@@ -2858,7 +2883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
         <v>105</v>
       </c>
@@ -2872,7 +2897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
         <v>105</v>
       </c>
@@ -2886,7 +2911,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
         <v>106</v>
       </c>
@@ -2900,7 +2925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
         <v>106</v>
       </c>
@@ -2914,7 +2939,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
         <v>107</v>
       </c>
@@ -2928,7 +2953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
         <v>107</v>
       </c>
@@ -2942,7 +2967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -2956,7 +2981,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>108</v>
       </c>
@@ -2970,7 +2995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
         <v>109</v>
       </c>
@@ -2984,7 +3009,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
         <v>109</v>
       </c>
@@ -2998,7 +3023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
         <v>110</v>
       </c>
@@ -3012,7 +3037,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
         <v>110</v>
       </c>
@@ -3026,7 +3051,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
         <v>111</v>
       </c>
@@ -3040,7 +3065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
         <v>111</v>
       </c>
@@ -3054,7 +3079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
         <v>112</v>
       </c>
@@ -3068,7 +3093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
         <v>112</v>
       </c>
@@ -3082,7 +3107,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
         <v>113</v>
       </c>
@@ -3096,7 +3121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
         <v>113</v>
       </c>
@@ -3110,7 +3135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
         <v>114</v>
       </c>
@@ -3124,7 +3149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
         <v>114</v>
       </c>
@@ -3138,7 +3163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
         <v>115</v>
       </c>
@@ -3152,7 +3177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
         <v>115</v>
       </c>
@@ -3166,7 +3191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
         <v>116</v>
       </c>
@@ -3180,7 +3205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
         <v>116</v>
       </c>
@@ -3194,7 +3219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
         <v>117</v>
       </c>
@@ -3208,7 +3233,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
         <v>117</v>
       </c>
@@ -3222,7 +3247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
         <v>118</v>
       </c>
@@ -3236,7 +3261,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
         <v>118</v>
       </c>
@@ -3250,7 +3275,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
         <v>120</v>
       </c>
@@ -3264,7 +3289,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
         <v>120</v>
       </c>
@@ -3278,7 +3303,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
         <v>121</v>
       </c>
@@ -3292,7 +3317,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
         <v>121</v>
       </c>
@@ -3306,7 +3331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
         <v>122</v>
       </c>
@@ -3320,7 +3345,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
         <v>122</v>
       </c>
@@ -3334,7 +3359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
         <v>123</v>
       </c>
@@ -3348,7 +3373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
         <v>123</v>
       </c>
@@ -3362,7 +3387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
         <v>124</v>
       </c>
@@ -3376,7 +3401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
         <v>124</v>
       </c>
@@ -3390,7 +3415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
         <v>125</v>
       </c>
@@ -3404,7 +3429,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
         <v>125</v>
       </c>
@@ -3418,7 +3443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
         <v>126</v>
       </c>
@@ -3432,7 +3457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
         <v>126</v>
       </c>
@@ -3446,7 +3471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
         <v>127</v>
       </c>
@@ -3460,7 +3485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
         <v>127</v>
       </c>
@@ -3474,7 +3499,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
         <v>128</v>
       </c>
@@ -3488,7 +3513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
         <v>128</v>
       </c>
@@ -3502,7 +3527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
         <v>129</v>
       </c>
@@ -3516,7 +3541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
         <v>129</v>
       </c>
@@ -3530,7 +3555,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
         <v>130</v>
       </c>
@@ -3544,7 +3569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
         <v>130</v>
       </c>
@@ -3558,7 +3583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
         <v>131</v>
       </c>
@@ -3572,7 +3597,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
         <v>131</v>
       </c>
@@ -3586,7 +3611,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
         <v>132</v>
       </c>
@@ -3600,7 +3625,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
         <v>132</v>
       </c>
@@ -3614,7 +3639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
         <v>133</v>
       </c>
@@ -3628,7 +3653,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
         <v>133</v>
       </c>
@@ -3642,7 +3667,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
         <v>135</v>
       </c>
@@ -3656,7 +3681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
         <v>135</v>
       </c>
@@ -3670,7 +3695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
         <v>136</v>
       </c>
@@ -3684,7 +3709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
         <v>136</v>
       </c>
@@ -3698,7 +3723,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
         <v>137</v>
       </c>
@@ -3712,7 +3737,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
         <v>137</v>
       </c>
@@ -3726,7 +3751,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
         <v>138</v>
       </c>
@@ -3740,7 +3765,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="s">
         <v>138</v>
       </c>
@@ -3754,7 +3779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
         <v>139</v>
       </c>
@@ -3768,7 +3793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="s">
         <v>139</v>
       </c>
@@ -3782,7 +3807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="s">
         <v>140</v>
       </c>
@@ -3796,7 +3821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
         <v>140</v>
       </c>
@@ -3810,7 +3835,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
         <v>141</v>
       </c>
@@ -3824,7 +3849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="s">
         <v>141</v>
       </c>
@@ -3838,7 +3863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
         <v>142</v>
       </c>
@@ -3852,7 +3877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="s">
         <v>142</v>
       </c>
@@ -3866,7 +3891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
         <v>143</v>
       </c>
@@ -3880,7 +3905,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="s">
         <v>143</v>
       </c>
@@ -3894,7 +3919,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
         <v>144</v>
       </c>
@@ -3908,7 +3933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
         <v>144</v>
       </c>
@@ -3922,7 +3947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
         <v>145</v>
       </c>
@@ -3936,7 +3961,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="s">
         <v>145</v>
       </c>
@@ -3950,7 +3975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
         <v>146</v>
       </c>
@@ -3964,7 +3989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
         <v>146</v>
       </c>
@@ -3978,7 +4003,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
         <v>147</v>
       </c>
@@ -3992,7 +4017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="s">
         <v>147</v>
       </c>
@@ -4006,7 +4031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
         <v>148</v>
       </c>
@@ -4020,7 +4045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
         <v>148</v>
       </c>
@@ -4034,7 +4059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
         <v>149</v>
       </c>
@@ -4048,7 +4073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
         <v>149</v>
       </c>
@@ -4062,7 +4087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="s">
         <v>150</v>
       </c>
@@ -4076,7 +4101,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
         <v>150</v>
       </c>
@@ -4090,7 +4115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="s">
         <v>151</v>
       </c>
@@ -4104,7 +4129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="s">
         <v>151</v>
       </c>
@@ -4118,7 +4143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="9" t="s">
         <v>152</v>
       </c>
@@ -4132,7 +4157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="9" t="s">
         <v>152</v>
       </c>
@@ -4146,7 +4171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="s">
         <v>153</v>
       </c>
@@ -4160,7 +4185,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="s">
         <v>153</v>
       </c>
@@ -4174,7 +4199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="9" t="s">
         <v>154</v>
       </c>
@@ -4188,7 +4213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="9" t="s">
         <v>154</v>
       </c>
@@ -4202,7 +4227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="s">
         <v>155</v>
       </c>
@@ -4216,7 +4241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="9" t="s">
         <v>155</v>
       </c>
@@ -4230,7 +4255,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="9" t="s">
         <v>156</v>
       </c>
@@ -4244,7 +4269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="s">
         <v>156</v>
       </c>
@@ -4258,7 +4283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="s">
         <v>157</v>
       </c>
@@ -4272,7 +4297,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
         <v>157</v>
       </c>
@@ -4286,7 +4311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="s">
         <v>158</v>
       </c>
@@ -4300,7 +4325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
         <v>158</v>
       </c>
@@ -4314,7 +4339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
         <v>159</v>
       </c>
@@ -4328,7 +4353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
         <v>159</v>
       </c>
@@ -4342,7 +4367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="s">
         <v>160</v>
       </c>
@@ -4356,7 +4381,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
         <v>160</v>
       </c>
@@ -4370,7 +4395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="s">
         <v>161</v>
       </c>
@@ -4384,7 +4409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="s">
         <v>161</v>
       </c>
@@ -4398,7 +4423,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="s">
         <v>162</v>
       </c>
@@ -4412,7 +4437,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="s">
         <v>162</v>
       </c>
@@ -4426,7 +4451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="s">
         <v>163</v>
       </c>
@@ -4440,7 +4465,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="9" t="s">
         <v>163</v>
       </c>
@@ -4454,7 +4479,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">
         <v>164</v>
       </c>
@@ -4468,7 +4493,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="9" t="s">
         <v>164</v>
       </c>
@@ -4482,7 +4507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="s">
         <v>165</v>
       </c>
@@ -4496,7 +4521,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="9" t="s">
         <v>165</v>
       </c>
@@ -4510,7 +4535,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
         <v>166</v>
       </c>
@@ -4524,7 +4549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
         <v>166</v>
       </c>
@@ -4538,7 +4563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="s">
         <v>167</v>
       </c>
@@ -4552,7 +4577,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="s">
         <v>167</v>
       </c>
@@ -4566,7 +4591,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="s">
         <v>168</v>
       </c>
@@ -4580,7 +4605,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
         <v>168</v>
       </c>
@@ -4594,7 +4619,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
         <v>169</v>
       </c>
@@ -4608,7 +4633,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
         <v>169</v>
       </c>
@@ -4622,7 +4647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
         <v>170</v>
       </c>
@@ -4636,7 +4661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
         <v>170</v>
       </c>
@@ -4650,7 +4675,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="s">
         <v>171</v>
       </c>
@@ -4664,7 +4689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="s">
         <v>171</v>
       </c>
@@ -4678,7 +4703,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="s">
         <v>172</v>
       </c>
@@ -4692,7 +4717,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="s">
         <v>172</v>
       </c>
@@ -4706,7 +4731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="s">
         <v>173</v>
       </c>
@@ -4720,7 +4745,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="s">
         <v>173</v>
       </c>
@@ -4734,7 +4759,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="s">
         <v>174</v>
       </c>
@@ -4748,7 +4773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="s">
         <v>174</v>
       </c>
@@ -4762,7 +4787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="s">
         <v>175</v>
       </c>
@@ -4776,7 +4801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="s">
         <v>175</v>
       </c>
@@ -4790,7 +4815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
         <v>176</v>
       </c>
@@ -4804,7 +4829,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="s">
         <v>176</v>
       </c>
@@ -4818,7 +4843,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
         <v>177</v>
       </c>
@@ -4832,7 +4857,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="s">
         <v>177</v>
       </c>
@@ -4846,7 +4871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
         <v>178</v>
       </c>
@@ -4860,7 +4885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="s">
         <v>178</v>
       </c>
@@ -4874,7 +4899,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="9" t="s">
         <v>179</v>
       </c>
@@ -4888,7 +4913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="s">
         <v>179</v>
       </c>
@@ -4902,7 +4927,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="s">
         <v>180</v>
       </c>
@@ -4916,7 +4941,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="9" t="s">
         <v>180</v>
       </c>
@@ -4930,7 +4955,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="s">
         <v>181</v>
       </c>
@@ -4944,7 +4969,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="s">
         <v>181</v>
       </c>
@@ -4958,7 +4983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="s">
         <v>182</v>
       </c>
@@ -4972,7 +4997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="s">
         <v>182</v>
       </c>
@@ -4986,7 +5011,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="s">
         <v>183</v>
       </c>
@@ -5000,7 +5025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="s">
         <v>183</v>
       </c>
@@ -5014,7 +5039,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="s">
         <v>184</v>
       </c>
@@ -5028,7 +5053,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="9" t="s">
         <v>184</v>
       </c>
@@ -5042,7 +5067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="s">
         <v>185</v>
       </c>
@@ -5056,7 +5081,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="s">
         <v>185</v>
       </c>
@@ -5070,7 +5095,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="s">
         <v>186</v>
       </c>
@@ -5084,7 +5109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="9" t="s">
         <v>186</v>
       </c>
@@ -5098,7 +5123,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="s">
         <v>187</v>
       </c>
@@ -5112,7 +5137,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="9" t="s">
         <v>187</v>
       </c>
@@ -5126,7 +5151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="s">
         <v>188</v>
       </c>
@@ -5140,7 +5165,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
         <v>188</v>
       </c>
@@ -5154,7 +5179,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="s">
         <v>189</v>
       </c>
@@ -5168,7 +5193,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="9" t="s">
         <v>189</v>
       </c>
@@ -5182,7 +5207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="s">
         <v>190</v>
       </c>
@@ -5196,7 +5221,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="9" t="s">
         <v>190</v>
       </c>
@@ -5210,7 +5235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="9" t="s">
         <v>191</v>
       </c>
@@ -5224,7 +5249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="9" t="s">
         <v>191</v>
       </c>
@@ -5238,7 +5263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="9" t="s">
         <v>192</v>
       </c>
@@ -5252,7 +5277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="9" t="s">
         <v>192</v>
       </c>
@@ -5266,7 +5291,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="9" t="s">
         <v>193</v>
       </c>
@@ -5280,7 +5305,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="9" t="s">
         <v>193</v>
       </c>
@@ -5294,7 +5319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="9" t="s">
         <v>194</v>
       </c>
@@ -5308,7 +5333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="9" t="s">
         <v>194</v>
       </c>
@@ -5322,7 +5347,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="9" t="s">
         <v>195</v>
       </c>
@@ -5336,7 +5361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="9" t="s">
         <v>195</v>
       </c>
@@ -5350,7 +5375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="9" t="s">
         <v>196</v>
       </c>
@@ -5364,7 +5389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="9" t="s">
         <v>196</v>
       </c>
@@ -5378,7 +5403,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="9" t="s">
         <v>197</v>
       </c>
@@ -5392,7 +5417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="9" t="s">
         <v>197</v>
       </c>
@@ -5406,7 +5431,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="9" t="s">
         <v>198</v>
       </c>
@@ -5420,7 +5445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="9" t="s">
         <v>198</v>
       </c>
@@ -5434,7 +5459,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="9" t="s">
         <v>199</v>
       </c>
@@ -5448,7 +5473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="9" t="s">
         <v>199</v>
       </c>
@@ -5462,7 +5487,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="9" t="s">
         <v>200</v>
       </c>
@@ -5476,7 +5501,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="9" t="s">
         <v>200</v>
       </c>
@@ -5490,7 +5515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="9" t="s">
         <v>201</v>
       </c>
@@ -5504,7 +5529,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="9" t="s">
         <v>201</v>
       </c>
@@ -5518,7 +5543,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="9" t="s">
         <v>202</v>
       </c>
@@ -5532,7 +5557,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="9" t="s">
         <v>202</v>
       </c>
@@ -5546,7 +5571,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="9" t="s">
         <v>203</v>
       </c>
@@ -5560,7 +5585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="9" t="s">
         <v>203</v>
       </c>
@@ -5574,7 +5599,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="9" t="s">
         <v>204</v>
       </c>
@@ -5588,7 +5613,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="9" t="s">
         <v>204</v>
       </c>
@@ -5602,7 +5627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="9" t="s">
         <v>205</v>
       </c>
@@ -5616,7 +5641,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="9" t="s">
         <v>205</v>
       </c>
@@ -5630,7 +5655,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="9" t="s">
         <v>206</v>
       </c>
@@ -5644,7 +5669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="9" t="s">
         <v>206</v>
       </c>
@@ -5658,7 +5683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="9" t="s">
         <v>207</v>
       </c>
@@ -5672,7 +5697,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="9" t="s">
         <v>207</v>
       </c>
@@ -5686,7 +5711,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="9" t="s">
         <v>208</v>
       </c>
@@ -5700,7 +5725,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="9" t="s">
         <v>208</v>
       </c>
@@ -5728,7 +5753,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="9" t="s">
         <v>209</v>
       </c>
@@ -5742,7 +5767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="9" t="s">
         <v>210</v>
       </c>
@@ -5784,7 +5809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="9" t="s">
         <v>212</v>
       </c>
@@ -5798,7 +5823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="9" t="s">
         <v>213</v>
       </c>
@@ -5826,7 +5851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="9" t="s">
         <v>214</v>
       </c>
@@ -5854,7 +5879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="9" t="s">
         <v>215</v>
       </c>
@@ -5882,7 +5907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="9" t="s">
         <v>216</v>
       </c>
@@ -5896,7 +5921,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="9" t="s">
         <v>216</v>
       </c>
@@ -5910,7 +5935,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="9" t="s">
         <v>217</v>
       </c>
@@ -5924,7 +5949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="9" t="s">
         <v>217</v>
       </c>
@@ -5938,7 +5963,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="9" t="s">
         <v>218</v>
       </c>
@@ -5952,7 +5977,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="9" t="s">
         <v>218</v>
       </c>
@@ -5966,7 +5991,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="9" t="s">
         <v>220</v>
       </c>
@@ -5980,7 +6005,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="9" t="s">
         <v>220</v>
       </c>
@@ -5994,7 +6019,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="9" t="s">
         <v>221</v>
       </c>
@@ -6008,7 +6033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="9" t="s">
         <v>221</v>
       </c>
@@ -6022,7 +6047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="9" t="s">
         <v>222</v>
       </c>
@@ -6036,7 +6061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="9" t="s">
         <v>222</v>
       </c>
@@ -6050,7 +6075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="9" t="s">
         <v>223</v>
       </c>
@@ -6064,7 +6089,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="9" t="s">
         <v>223</v>
       </c>
@@ -6078,7 +6103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="9" t="s">
         <v>224</v>
       </c>
@@ -6092,7 +6117,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="9" t="s">
         <v>224</v>
       </c>
@@ -6106,7 +6131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="9" t="s">
         <v>225</v>
       </c>
@@ -6120,7 +6145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="9" t="s">
         <v>225</v>
       </c>
@@ -6134,7 +6159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="9" t="s">
         <v>226</v>
       </c>
@@ -6148,7 +6173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="9" t="s">
         <v>226</v>
       </c>
@@ -6162,7 +6187,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="9" t="s">
         <v>227</v>
       </c>
@@ -6176,7 +6201,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="9" t="s">
         <v>227</v>
       </c>
@@ -6190,7 +6215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="9" t="s">
         <v>228</v>
       </c>
@@ -6204,7 +6229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="9" t="s">
         <v>228</v>
       </c>
@@ -6218,7 +6243,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="9" t="s">
         <v>229</v>
       </c>
@@ -6232,7 +6257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="9" t="s">
         <v>229</v>
       </c>
@@ -6246,7 +6271,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="9" t="s">
         <v>230</v>
       </c>
@@ -6260,7 +6285,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="9" t="s">
         <v>230</v>
       </c>
@@ -6274,7 +6299,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="9" t="s">
         <v>231</v>
       </c>
@@ -6288,7 +6313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="9" t="s">
         <v>231</v>
       </c>
@@ -6302,7 +6327,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="9" t="s">
         <v>232</v>
       </c>
@@ -6316,7 +6341,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="9" t="s">
         <v>232</v>
       </c>
@@ -6330,7 +6355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="9" t="s">
         <v>233</v>
       </c>
@@ -6344,7 +6369,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="9" t="s">
         <v>233</v>
       </c>
@@ -6358,7 +6383,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="9" t="s">
         <v>234</v>
       </c>
@@ -6372,7 +6397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="9" t="s">
         <v>234</v>
       </c>
@@ -6386,7 +6411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="9" t="s">
         <v>235</v>
       </c>
@@ -6400,7 +6425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="9" t="s">
         <v>235</v>
       </c>
@@ -6414,7 +6439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="9" t="s">
         <v>236</v>
       </c>
@@ -6428,7 +6453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="9" t="s">
         <v>236</v>
       </c>
@@ -6442,7 +6467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="9" t="s">
         <v>237</v>
       </c>
@@ -6456,7 +6481,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="9" t="s">
         <v>237</v>
       </c>
@@ -6470,7 +6495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="9" t="s">
         <v>238</v>
       </c>
@@ -6484,7 +6509,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="9" t="s">
         <v>238</v>
       </c>
@@ -6498,7 +6523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="9" t="s">
         <v>239</v>
       </c>
@@ -6512,7 +6537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="9" t="s">
         <v>239</v>
       </c>
@@ -6526,7 +6551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="9" t="s">
         <v>240</v>
       </c>
@@ -6540,7 +6565,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="9" t="s">
         <v>240</v>
       </c>
@@ -6554,7 +6579,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="9" t="s">
         <v>241</v>
       </c>
@@ -6568,7 +6593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="9" t="s">
         <v>241</v>
       </c>
@@ -6582,7 +6607,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="9" t="s">
         <v>242</v>
       </c>
@@ -6596,7 +6621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="9" t="s">
         <v>242</v>
       </c>
@@ -6610,7 +6635,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="9" t="s">
         <v>243</v>
       </c>
@@ -6624,7 +6649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="9" t="s">
         <v>243</v>
       </c>
@@ -6638,7 +6663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="9" t="s">
         <v>244</v>
       </c>
@@ -6652,7 +6677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="9" t="s">
         <v>244</v>
       </c>
@@ -6666,7 +6691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="9" t="s">
         <v>245</v>
       </c>
@@ -6680,7 +6705,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="9" t="s">
         <v>245</v>
       </c>
@@ -6694,7 +6719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="9" t="s">
         <v>246</v>
       </c>
@@ -6708,7 +6733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="9" t="s">
         <v>246</v>
       </c>
@@ -6722,7 +6747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="9" t="s">
         <v>247</v>
       </c>
@@ -6736,7 +6761,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="9" t="s">
         <v>247</v>
       </c>
@@ -6750,7 +6775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="9" t="s">
         <v>248</v>
       </c>
@@ -6764,7 +6789,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="9" t="s">
         <v>248</v>
       </c>
@@ -6778,7 +6803,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="9" t="s">
         <v>249</v>
       </c>
@@ -6792,7 +6817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="9" t="s">
         <v>249</v>
       </c>
@@ -6806,7 +6831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="9" t="s">
         <v>250</v>
       </c>
@@ -6820,7 +6845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="9" t="s">
         <v>250</v>
       </c>
@@ -6834,7 +6859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="9" t="s">
         <v>251</v>
       </c>
@@ -6848,7 +6873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="9" t="s">
         <v>251</v>
       </c>
@@ -6862,7 +6887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="9" t="s">
         <v>252</v>
       </c>
@@ -6876,7 +6901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="9" t="s">
         <v>252</v>
       </c>
@@ -6890,7 +6915,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="9" t="s">
         <v>253</v>
       </c>
@@ -6904,7 +6929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="9" t="s">
         <v>253</v>
       </c>
@@ -6918,7 +6943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="9" t="s">
         <v>254</v>
       </c>
@@ -6932,7 +6957,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="9" t="s">
         <v>254</v>
       </c>
@@ -6946,7 +6971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="9" t="s">
         <v>255</v>
       </c>
@@ -6960,7 +6985,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="9" t="s">
         <v>255</v>
       </c>
@@ -6974,7 +6999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="9" t="s">
         <v>256</v>
       </c>
@@ -6988,7 +7013,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="10" t="s">
         <v>256</v>
       </c>
@@ -7337,6 +7362,13 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A1:D335">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Adjustment Clearing"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7344,6 +7376,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7352,10 +7385,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L63" activeCellId="0" sqref="L63"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7363,7 +7396,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,1295 +7412,1556 @@
       <c r="D1" s="11" t="s">
         <v>259</v>
       </c>
+      <c r="E1" s="11" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="str">
+      <c r="A2" s="9" t="str">
         <f aca="false">CONCATENATE(C2,"-",D2)</f>
         <v>Adjustment Clearing-102</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E2" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="str">
+      <c r="A3" s="9" t="str">
         <f aca="false">CONCATENATE(C3,"-",D3)</f>
         <v>Allowance-102</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E3" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="str">
+      <c r="A4" s="9" t="str">
         <f aca="false">CONCATENATE(C4,"-",D4)</f>
         <v>Capitalization Clearing-102</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E4" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="str">
+      <c r="A5" s="9" t="str">
         <f aca="false">CONCATENATE(C5,"-",D5)</f>
         <v>Cash Clearing-102</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="9" t="n">
         <v>4000</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E5" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="str">
+      <c r="A6" s="9" t="str">
         <f aca="false">CONCATENATE(C6,"-",D6)</f>
         <v>Charge-Off Allowance-102</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="9" t="n">
         <v>5000</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E6" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="str">
+      <c r="A7" s="9" t="str">
         <f aca="false">CONCATENATE(C7,"-",D7)</f>
         <v>Commitment Clearing-102</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="9" t="n">
         <v>6000</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E7" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="str">
+      <c r="A8" s="9" t="str">
         <f aca="false">CONCATENATE(C8,"-",D8)</f>
         <v>Cost Expense-102</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="9" t="n">
         <v>7000</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E8" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="str">
+      <c r="A9" s="9" t="str">
         <f aca="false">CONCATENATE(C9,"-",D9)</f>
         <v>Cost Payable-102</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="9" t="n">
         <v>8000</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E9" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="str">
+      <c r="A10" s="9" t="str">
         <f aca="false">CONCATENATE(C10,"-",D10)</f>
         <v>Deferred Basis-102</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="9" t="n">
         <v>9000</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E10" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="str">
+      <c r="A11" s="9" t="str">
         <f aca="false">CONCATENATE(C11,"-",D11)</f>
         <v>Deferred Basis Clearing-102</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E11" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="str">
+      <c r="A12" s="9" t="str">
         <f aca="false">CONCATENATE(C12,"-",D12)</f>
         <v>Fair Value Adjustment-102</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="9" t="n">
         <v>11000</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E12" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="str">
+      <c r="A13" s="9" t="str">
         <f aca="false">CONCATENATE(C13,"-",D13)</f>
         <v>Fair Value Income-102</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="9" t="n">
         <v>12000</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E13" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="str">
+      <c r="A14" s="9" t="str">
         <f aca="false">CONCATENATE(C14,"-",D14)</f>
         <v>Fair Value Unrealized Gain Loss-102</v>
       </c>
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="9" t="n">
         <v>13000</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E14" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="str">
+      <c r="A15" s="9" t="str">
         <f aca="false">CONCATENATE(C15,"-",D15)</f>
         <v>Fee Income-102</v>
       </c>
-      <c r="B15" s="12" t="n">
+      <c r="B15" s="9" t="n">
         <v>14000</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E15" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="str">
+      <c r="A16" s="9" t="str">
         <f aca="false">CONCATENATE(C16,"-",D16)</f>
         <v>Fee Income Contra-102</v>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="9" t="n">
         <v>15000</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E16" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="str">
+      <c r="A17" s="9" t="str">
         <f aca="false">CONCATENATE(C17,"-",D17)</f>
         <v>Fee Receivable-102</v>
       </c>
-      <c r="B17" s="12" t="n">
+      <c r="B17" s="9" t="n">
         <v>16000</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E17" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="str">
+      <c r="A18" s="9" t="str">
         <f aca="false">CONCATENATE(C18,"-",D18)</f>
         <v>Fee Receivable Contra-102</v>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="9" t="n">
         <v>17000</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E18" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="str">
+      <c r="A19" s="9" t="str">
         <f aca="false">CONCATENATE(C19,"-",D19)</f>
         <v>Foreclosure Clearing-102</v>
       </c>
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="9" t="n">
         <v>18000</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E19" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="str">
+      <c r="A20" s="9" t="str">
         <f aca="false">CONCATENATE(C20,"-",D20)</f>
         <v>Foreclosure Gain Loss-102</v>
       </c>
-      <c r="B20" s="12" t="n">
+      <c r="B20" s="9" t="n">
         <v>19000</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E20" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="str">
+      <c r="A21" s="9" t="str">
         <f aca="false">CONCATENATE(C21,"-",D21)</f>
         <v>Interest Income-102</v>
       </c>
-      <c r="B21" s="12" t="n">
+      <c r="B21" s="9" t="n">
         <v>20000</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E21" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="str">
+      <c r="A22" s="9" t="str">
         <f aca="false">CONCATENATE(C22,"-",D22)</f>
         <v>Interest Income Amortization-102</v>
       </c>
-      <c r="B22" s="12" t="n">
+      <c r="B22" s="9" t="n">
         <v>21000</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E22" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="str">
+      <c r="A23" s="9" t="str">
         <f aca="false">CONCATENATE(C23,"-",D23)</f>
         <v>Interest Income Contra-102</v>
       </c>
-      <c r="B23" s="12" t="n">
+      <c r="B23" s="9" t="n">
         <v>22000</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E23" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="str">
+      <c r="A24" s="9" t="str">
         <f aca="false">CONCATENATE(C24,"-",D24)</f>
         <v>Interest Receivable-102</v>
       </c>
-      <c r="B24" s="12" t="n">
+      <c r="B24" s="9" t="n">
         <v>23000</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E24" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="str">
+      <c r="A25" s="9" t="str">
         <f aca="false">CONCATENATE(C25,"-",D25)</f>
         <v>Interest Receivable Contra-102</v>
       </c>
-      <c r="B25" s="12" t="n">
+      <c r="B25" s="9" t="n">
         <v>24000</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E25" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="str">
+      <c r="A26" s="9" t="str">
         <f aca="false">CONCATENATE(C26,"-",D26)</f>
         <v>LOCOM Adjustment-102</v>
       </c>
-      <c r="B26" s="12" t="n">
+      <c r="B26" s="9" t="n">
         <v>25000</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E26" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="str">
+      <c r="A27" s="9" t="str">
         <f aca="false">CONCATENATE(C27,"-",D27)</f>
         <v>LOCOM Unrealized Loss-102</v>
       </c>
-      <c r="B27" s="12" t="n">
+      <c r="B27" s="9" t="n">
         <v>26000</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E27" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="str">
+      <c r="A28" s="9" t="str">
         <f aca="false">CONCATENATE(C28,"-",D28)</f>
         <v>Non-Accrual Clearing-102</v>
       </c>
-      <c r="B28" s="12" t="n">
+      <c r="B28" s="9" t="n">
         <v>27000</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E28" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="str">
+      <c r="A29" s="9" t="str">
         <f aca="false">CONCATENATE(C29,"-",D29)</f>
         <v>Other Income-102</v>
       </c>
-      <c r="B29" s="12" t="n">
+      <c r="B29" s="9" t="n">
         <v>28000</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="12" t="n">
+      <c r="D29" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E29" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="str">
+      <c r="A30" s="9" t="str">
         <f aca="false">CONCATENATE(C30,"-",D30)</f>
         <v>Principal-102</v>
       </c>
-      <c r="B30" s="12" t="n">
+      <c r="B30" s="9" t="n">
         <v>29000</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="12" t="n">
+      <c r="D30" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E30" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="str">
+      <c r="A31" s="9" t="str">
         <f aca="false">CONCATENATE(C31,"-",D31)</f>
         <v>Principal Contra-102</v>
       </c>
-      <c r="B31" s="12" t="n">
+      <c r="B31" s="9" t="n">
         <v>30000</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="12" t="n">
+      <c r="D31" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E31" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="str">
+      <c r="A32" s="9" t="str">
         <f aca="false">CONCATENATE(C32,"-",D32)</f>
         <v>Principal Payable-102</v>
       </c>
-      <c r="B32" s="12" t="n">
+      <c r="B32" s="9" t="n">
         <v>31000</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E32" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="str">
+      <c r="A33" s="9" t="str">
         <f aca="false">CONCATENATE(C33,"-",D33)</f>
         <v>Provision Expense-102</v>
       </c>
-      <c r="B33" s="12" t="n">
+      <c r="B33" s="9" t="n">
         <v>32000</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="12" t="n">
+      <c r="D33" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E33" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="str">
+      <c r="A34" s="9" t="str">
         <f aca="false">CONCATENATE(C34,"-",D34)</f>
         <v>Purchase Clearing-102</v>
       </c>
-      <c r="B34" s="12" t="n">
+      <c r="B34" s="9" t="n">
         <v>33000</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E34" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="str">
+      <c r="A35" s="9" t="str">
         <f aca="false">CONCATENATE(C35,"-",D35)</f>
         <v>Recovery Allowance-102</v>
       </c>
-      <c r="B35" s="12" t="n">
+      <c r="B35" s="9" t="n">
         <v>34000</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E35" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="str">
+      <c r="A36" s="9" t="str">
         <f aca="false">CONCATENATE(C36,"-",D36)</f>
         <v>REO Clearing-102</v>
       </c>
-      <c r="B36" s="12" t="n">
+      <c r="B36" s="9" t="n">
         <v>35000</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="12" t="n">
+      <c r="D36" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E36" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="str">
+      <c r="A37" s="9" t="str">
         <f aca="false">CONCATENATE(C37,"-",D37)</f>
         <v>Repossession Asset-102</v>
       </c>
-      <c r="B37" s="12" t="n">
+      <c r="B37" s="9" t="n">
         <v>36000</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E37" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="str">
+      <c r="A38" s="9" t="str">
         <f aca="false">CONCATENATE(C38,"-",D38)</f>
         <v>Repossession Clearing-102</v>
       </c>
-      <c r="B38" s="12" t="n">
+      <c r="B38" s="9" t="n">
         <v>37000</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="12" t="n">
+      <c r="D38" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E38" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="str">
+      <c r="A39" s="9" t="str">
         <f aca="false">CONCATENATE(C39,"-",D39)</f>
         <v>Sale Clearing-102</v>
       </c>
-      <c r="B39" s="12" t="n">
+      <c r="B39" s="9" t="n">
         <v>38000</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E39" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="str">
+      <c r="A40" s="9" t="str">
         <f aca="false">CONCATENATE(C40,"-",D40)</f>
         <v>Sale Gain Loss-102</v>
       </c>
-      <c r="B40" s="12" t="n">
+      <c r="B40" s="9" t="n">
         <v>39000</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E40" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="str">
+      <c r="A41" s="9" t="str">
         <f aca="false">CONCATENATE(C41,"-",D41)</f>
         <v>Securitization Clearing-102</v>
       </c>
-      <c r="B41" s="12" t="n">
+      <c r="B41" s="9" t="n">
         <v>40000</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E41" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="str">
+      <c r="A42" s="9" t="str">
         <f aca="false">CONCATENATE(C42,"-",D42)</f>
         <v>Securitization Gain Loss-102</v>
       </c>
-      <c r="B42" s="12" t="n">
+      <c r="B42" s="9" t="n">
         <v>41000</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="12" t="n">
+      <c r="D42" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E42" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="str">
+      <c r="A43" s="9" t="str">
         <f aca="false">CONCATENATE(C43,"-",D43)</f>
         <v>Unfunded Commitment Balance-102</v>
       </c>
-      <c r="B43" s="12" t="n">
+      <c r="B43" s="9" t="n">
         <v>42000</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E43" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="str">
+      <c r="A44" s="9" t="str">
         <f aca="false">CONCATENATE(C44,"-",D44)</f>
         <v>Principal Contra - Interest Applied to Principal-102</v>
       </c>
-      <c r="B44" s="12" t="n">
+      <c r="B44" s="9" t="n">
         <v>43000</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="12" t="n">
+      <c r="D44" s="9" t="n">
         <v>102</v>
       </c>
+      <c r="E44" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="str">
+      <c r="A45" s="9" t="str">
         <f aca="false">CONCATENATE(C45,"-",D45)</f>
         <v>Adjustment Clearing-103</v>
       </c>
-      <c r="B45" s="12" t="n">
+      <c r="B45" s="9" t="n">
         <v>44000</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="12" t="n">
+      <c r="D45" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E45" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="str">
+      <c r="A46" s="9" t="str">
         <f aca="false">CONCATENATE(C46,"-",D46)</f>
         <v>Allowance-103</v>
       </c>
-      <c r="B46" s="12" t="n">
+      <c r="B46" s="9" t="n">
         <v>45000</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="12" t="n">
+      <c r="D46" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E46" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="str">
+      <c r="A47" s="9" t="str">
         <f aca="false">CONCATENATE(C47,"-",D47)</f>
         <v>Capitalization Clearing-103</v>
       </c>
-      <c r="B47" s="12" t="n">
+      <c r="B47" s="9" t="n">
         <v>46000</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="12" t="n">
+      <c r="D47" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E47" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="str">
+      <c r="A48" s="9" t="str">
         <f aca="false">CONCATENATE(C48,"-",D48)</f>
         <v>Cash Clearing-103</v>
       </c>
-      <c r="B48" s="12" t="n">
+      <c r="B48" s="9" t="n">
         <v>47000</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="12" t="n">
+      <c r="D48" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E48" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="str">
+      <c r="A49" s="9" t="str">
         <f aca="false">CONCATENATE(C49,"-",D49)</f>
         <v>Charge-Off Allowance-103</v>
       </c>
-      <c r="B49" s="12" t="n">
+      <c r="B49" s="9" t="n">
         <v>48000</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="12" t="n">
+      <c r="D49" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E49" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="str">
+      <c r="A50" s="9" t="str">
         <f aca="false">CONCATENATE(C50,"-",D50)</f>
         <v>Commitment Clearing-103</v>
       </c>
-      <c r="B50" s="12" t="n">
+      <c r="B50" s="9" t="n">
         <v>49000</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="12" t="n">
+      <c r="D50" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E50" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="str">
+      <c r="A51" s="9" t="str">
         <f aca="false">CONCATENATE(C51,"-",D51)</f>
         <v>Cost Expense-103</v>
       </c>
-      <c r="B51" s="12" t="n">
+      <c r="B51" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="12" t="n">
+      <c r="D51" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E51" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="str">
+      <c r="A52" s="9" t="str">
         <f aca="false">CONCATENATE(C52,"-",D52)</f>
         <v>Cost Payable-103</v>
       </c>
-      <c r="B52" s="12" t="n">
+      <c r="B52" s="9" t="n">
         <v>51000</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="12" t="n">
+      <c r="D52" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E52" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="str">
+      <c r="A53" s="9" t="str">
         <f aca="false">CONCATENATE(C53,"-",D53)</f>
         <v>Deferred Basis-103</v>
       </c>
-      <c r="B53" s="12" t="n">
+      <c r="B53" s="9" t="n">
         <v>52000</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="12" t="n">
+      <c r="D53" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E53" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="str">
+      <c r="A54" s="9" t="str">
         <f aca="false">CONCATENATE(C54,"-",D54)</f>
         <v>Deferred Basis Clearing-103</v>
       </c>
-      <c r="B54" s="12" t="n">
+      <c r="B54" s="9" t="n">
         <v>53000</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="12" t="n">
+      <c r="D54" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E54" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="str">
+      <c r="A55" s="9" t="str">
         <f aca="false">CONCATENATE(C55,"-",D55)</f>
         <v>Fair Value Adjustment-103</v>
       </c>
-      <c r="B55" s="12" t="n">
+      <c r="B55" s="9" t="n">
         <v>54000</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="12" t="n">
+      <c r="D55" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E55" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="str">
+      <c r="A56" s="9" t="str">
         <f aca="false">CONCATENATE(C56,"-",D56)</f>
         <v>Fair Value Income-103</v>
       </c>
-      <c r="B56" s="12" t="n">
+      <c r="B56" s="9" t="n">
         <v>55000</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="12" t="n">
+      <c r="D56" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E56" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="str">
+      <c r="A57" s="9" t="str">
         <f aca="false">CONCATENATE(C57,"-",D57)</f>
         <v>Fair Value Unrealized Gain Loss-103</v>
       </c>
-      <c r="B57" s="12" t="n">
+      <c r="B57" s="9" t="n">
         <v>56000</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="12" t="n">
+      <c r="D57" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E57" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="str">
+      <c r="A58" s="9" t="str">
         <f aca="false">CONCATENATE(C58,"-",D58)</f>
         <v>Fee Income-103</v>
       </c>
-      <c r="B58" s="12" t="n">
+      <c r="B58" s="9" t="n">
         <v>57000</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="12" t="n">
+      <c r="D58" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E58" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="str">
+      <c r="A59" s="9" t="str">
         <f aca="false">CONCATENATE(C59,"-",D59)</f>
         <v>Fee Income Contra-103</v>
       </c>
-      <c r="B59" s="12" t="n">
+      <c r="B59" s="9" t="n">
         <v>58000</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="12" t="n">
+      <c r="D59" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E59" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="str">
+      <c r="A60" s="9" t="str">
         <f aca="false">CONCATENATE(C60,"-",D60)</f>
         <v>Fee Receivable-103</v>
       </c>
-      <c r="B60" s="12" t="n">
+      <c r="B60" s="9" t="n">
         <v>59000</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="12" t="n">
+      <c r="D60" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E60" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="str">
+      <c r="A61" s="9" t="str">
         <f aca="false">CONCATENATE(C61,"-",D61)</f>
         <v>Fee Receivable Contra-103</v>
       </c>
-      <c r="B61" s="12" t="n">
+      <c r="B61" s="9" t="n">
         <v>60000</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="12" t="n">
+      <c r="D61" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E61" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="str">
+      <c r="A62" s="9" t="str">
         <f aca="false">CONCATENATE(C62,"-",D62)</f>
         <v>Foreclosure Clearing-103</v>
       </c>
-      <c r="B62" s="12" t="n">
+      <c r="B62" s="9" t="n">
         <v>61000</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="12" t="n">
+      <c r="D62" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E62" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="str">
+      <c r="A63" s="9" t="str">
         <f aca="false">CONCATENATE(C63,"-",D63)</f>
         <v>Foreclosure Gain Loss-103</v>
       </c>
-      <c r="B63" s="12" t="n">
+      <c r="B63" s="9" t="n">
         <v>62000</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D63" s="12" t="n">
+      <c r="D63" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E63" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="str">
+      <c r="A64" s="9" t="str">
         <f aca="false">CONCATENATE(C64,"-",D64)</f>
         <v>Interest Income-103</v>
       </c>
-      <c r="B64" s="12" t="n">
+      <c r="B64" s="9" t="n">
         <v>63000</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="12" t="n">
+      <c r="D64" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E64" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="str">
+      <c r="A65" s="9" t="str">
         <f aca="false">CONCATENATE(C65,"-",D65)</f>
         <v>Interest Income Amortization-103</v>
       </c>
-      <c r="B65" s="12" t="n">
+      <c r="B65" s="9" t="n">
         <v>64000</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D65" s="12" t="n">
+      <c r="D65" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E65" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="str">
+      <c r="A66" s="9" t="str">
         <f aca="false">CONCATENATE(C66,"-",D66)</f>
         <v>Interest Income Contra-103</v>
       </c>
-      <c r="B66" s="12" t="n">
+      <c r="B66" s="9" t="n">
         <v>65000</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D66" s="12" t="n">
+      <c r="D66" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E66" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="str">
+      <c r="A67" s="9" t="str">
         <f aca="false">CONCATENATE(C67,"-",D67)</f>
         <v>Interest Receivable-103</v>
       </c>
-      <c r="B67" s="12" t="n">
+      <c r="B67" s="9" t="n">
         <v>66000</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="12" t="n">
+      <c r="D67" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E67" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="str">
+      <c r="A68" s="9" t="str">
         <f aca="false">CONCATENATE(C68,"-",D68)</f>
         <v>Interest Receivable Contra-103</v>
       </c>
-      <c r="B68" s="12" t="n">
+      <c r="B68" s="9" t="n">
         <v>67000</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D68" s="12" t="n">
+      <c r="D68" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E68" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="str">
+      <c r="A69" s="9" t="str">
         <f aca="false">CONCATENATE(C69,"-",D69)</f>
         <v>LOCOM Adjustment-103</v>
       </c>
-      <c r="B69" s="12" t="n">
+      <c r="B69" s="9" t="n">
         <v>68000</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D69" s="12" t="n">
+      <c r="D69" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E69" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="str">
+      <c r="A70" s="9" t="str">
         <f aca="false">CONCATENATE(C70,"-",D70)</f>
         <v>LOCOM Unrealized Loss-103</v>
       </c>
-      <c r="B70" s="12" t="n">
+      <c r="B70" s="9" t="n">
         <v>69000</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D70" s="12" t="n">
+      <c r="D70" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E70" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="str">
+      <c r="A71" s="9" t="str">
         <f aca="false">CONCATENATE(C71,"-",D71)</f>
         <v>Non-Accrual Clearing-103</v>
       </c>
-      <c r="B71" s="12" t="n">
+      <c r="B71" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="12" t="n">
+      <c r="D71" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E71" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="str">
+      <c r="A72" s="9" t="str">
         <f aca="false">CONCATENATE(C72,"-",D72)</f>
         <v>Other Income-103</v>
       </c>
-      <c r="B72" s="12" t="n">
+      <c r="B72" s="9" t="n">
         <v>71000</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D72" s="12" t="n">
+      <c r="D72" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E72" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="str">
+      <c r="A73" s="9" t="str">
         <f aca="false">CONCATENATE(C73,"-",D73)</f>
         <v>Principal-103</v>
       </c>
-      <c r="B73" s="12" t="n">
+      <c r="B73" s="9" t="n">
         <v>72000</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="12" t="n">
+      <c r="D73" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E73" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="str">
+      <c r="A74" s="9" t="str">
         <f aca="false">CONCATENATE(C74,"-",D74)</f>
         <v>Principal Contra-103</v>
       </c>
-      <c r="B74" s="12" t="n">
+      <c r="B74" s="9" t="n">
         <v>73000</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="12" t="n">
+      <c r="D74" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E74" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="str">
+      <c r="A75" s="9" t="str">
         <f aca="false">CONCATENATE(C75,"-",D75)</f>
         <v>Principal Payable-103</v>
       </c>
-      <c r="B75" s="12" t="n">
+      <c r="B75" s="9" t="n">
         <v>74000</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D75" s="12" t="n">
+      <c r="D75" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E75" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="str">
+      <c r="A76" s="9" t="str">
         <f aca="false">CONCATENATE(C76,"-",D76)</f>
         <v>Provision Expense-103</v>
       </c>
-      <c r="B76" s="12" t="n">
+      <c r="B76" s="9" t="n">
         <v>75000</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D76" s="12" t="n">
+      <c r="D76" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E76" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12" t="str">
+      <c r="A77" s="9" t="str">
         <f aca="false">CONCATENATE(C77,"-",D77)</f>
         <v>Purchase Clearing-103</v>
       </c>
-      <c r="B77" s="12" t="n">
+      <c r="B77" s="9" t="n">
         <v>76000</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D77" s="12" t="n">
+      <c r="D77" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E77" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12" t="str">
+      <c r="A78" s="9" t="str">
         <f aca="false">CONCATENATE(C78,"-",D78)</f>
         <v>Recovery Allowance-103</v>
       </c>
-      <c r="B78" s="12" t="n">
+      <c r="B78" s="9" t="n">
         <v>77000</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="12" t="n">
+      <c r="D78" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E78" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="str">
+      <c r="A79" s="9" t="str">
         <f aca="false">CONCATENATE(C79,"-",D79)</f>
         <v>REO Clearing-103</v>
       </c>
-      <c r="B79" s="12" t="n">
+      <c r="B79" s="9" t="n">
         <v>78000</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D79" s="12" t="n">
+      <c r="D79" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E79" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="str">
+      <c r="A80" s="9" t="str">
         <f aca="false">CONCATENATE(C80,"-",D80)</f>
         <v>Repossession Asset-103</v>
       </c>
-      <c r="B80" s="12" t="n">
+      <c r="B80" s="9" t="n">
         <v>79000</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D80" s="12" t="n">
+      <c r="D80" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E80" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="str">
+      <c r="A81" s="9" t="str">
         <f aca="false">CONCATENATE(C81,"-",D81)</f>
         <v>Repossession Clearing-103</v>
       </c>
-      <c r="B81" s="12" t="n">
+      <c r="B81" s="9" t="n">
         <v>80000</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="12" t="n">
+      <c r="D81" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E81" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="str">
+      <c r="A82" s="9" t="str">
         <f aca="false">CONCATENATE(C82,"-",D82)</f>
         <v>Sale Clearing-103</v>
       </c>
-      <c r="B82" s="12" t="n">
+      <c r="B82" s="9" t="n">
         <v>81000</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="12" t="n">
+      <c r="D82" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E82" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="str">
+      <c r="A83" s="9" t="str">
         <f aca="false">CONCATENATE(C83,"-",D83)</f>
         <v>Sale Gain Loss-103</v>
       </c>
-      <c r="B83" s="12" t="n">
+      <c r="B83" s="9" t="n">
         <v>82000</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="12" t="n">
+      <c r="D83" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E83" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="str">
+      <c r="A84" s="9" t="str">
         <f aca="false">CONCATENATE(C84,"-",D84)</f>
         <v>Securitization Clearing-103</v>
       </c>
-      <c r="B84" s="12" t="n">
+      <c r="B84" s="9" t="n">
         <v>83000</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D84" s="12" t="n">
+      <c r="D84" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E84" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="str">
+      <c r="A85" s="9" t="str">
         <f aca="false">CONCATENATE(C85,"-",D85)</f>
         <v>Securitization Gain Loss-103</v>
       </c>
-      <c r="B85" s="12" t="n">
+      <c r="B85" s="9" t="n">
         <v>84000</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D85" s="12" t="n">
+      <c r="D85" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E85" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="str">
+      <c r="A86" s="9" t="str">
         <f aca="false">CONCATENATE(C86,"-",D86)</f>
         <v>Unfunded Commitment Balance-103</v>
       </c>
-      <c r="B86" s="12" t="n">
+      <c r="B86" s="9" t="n">
         <v>85000</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D86" s="12" t="n">
+      <c r="D86" s="9" t="n">
         <v>103</v>
       </c>
+      <c r="E86" s="9" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="str">
+      <c r="A87" s="9" t="str">
         <f aca="false">CONCATENATE(C87,"-",D87)</f>
         <v>Principal Contra - Interest Applied to Principal-103</v>
       </c>
-      <c r="B87" s="12" t="n">
+      <c r="B87" s="9" t="n">
         <v>86000</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="12" t="n">
+      <c r="D87" s="9" t="n">
         <v>103</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/docs/SubledgerE2E_GL_Testing.xlsx
+++ b/docs/SubledgerE2E_GL_Testing.xlsx
@@ -14,9 +14,6 @@
     <sheet name="SubledgerMapping" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="ChartOfAccount" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">SubledgerMapping!$A$1:$D$335</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -287,10 +284,10 @@
     <t xml:space="preserve">Credit</t>
   </si>
   <si>
-    <t xml:space="preserve">AcCreditue Income-Fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AcCreditue Income-Interest</t>
+    <t xml:space="preserve">Accrue Income-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accrue Income-Interest</t>
   </si>
   <si>
     <t xml:space="preserve">Fee Capitalized to Principal-Fee</t>
@@ -1015,10 +1012,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
@@ -2321,13 +2314,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2351,7 +2344,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>82</v>
       </c>
@@ -2365,7 +2358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>82</v>
       </c>
@@ -2379,7 +2372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>86</v>
       </c>
@@ -2393,7 +2386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>86</v>
       </c>
@@ -2407,7 +2400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>87</v>
       </c>
@@ -2421,7 +2414,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>87</v>
       </c>
@@ -2435,7 +2428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>88</v>
       </c>
@@ -2449,7 +2442,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>88</v>
       </c>
@@ -2463,7 +2456,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>89</v>
       </c>
@@ -2477,7 +2470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>89</v>
       </c>
@@ -2491,7 +2484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>90</v>
       </c>
@@ -2505,7 +2498,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>90</v>
       </c>
@@ -2519,7 +2512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>91</v>
       </c>
@@ -2533,7 +2526,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>91</v>
       </c>
@@ -2547,7 +2540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>92</v>
       </c>
@@ -2561,7 +2554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>92</v>
       </c>
@@ -2575,7 +2568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>93</v>
       </c>
@@ -2589,7 +2582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
         <v>93</v>
       </c>
@@ -2603,7 +2596,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
         <v>95</v>
       </c>
@@ -2617,7 +2610,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>95</v>
       </c>
@@ -2631,7 +2624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
         <v>96</v>
       </c>
@@ -2645,7 +2638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
         <v>96</v>
       </c>
@@ -2659,7 +2652,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>97</v>
       </c>
@@ -2673,7 +2666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>97</v>
       </c>
@@ -2687,7 +2680,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>98</v>
       </c>
@@ -2701,7 +2694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>98</v>
       </c>
@@ -2715,7 +2708,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>99</v>
       </c>
@@ -2729,7 +2722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>99</v>
       </c>
@@ -2743,7 +2736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
         <v>100</v>
       </c>
@@ -2757,7 +2750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
@@ -2771,7 +2764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
         <v>101</v>
       </c>
@@ -2785,7 +2778,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>101</v>
       </c>
@@ -2799,7 +2792,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
         <v>102</v>
       </c>
@@ -2813,7 +2806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
         <v>102</v>
       </c>
@@ -2827,7 +2820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
         <v>103</v>
       </c>
@@ -2841,7 +2834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
         <v>103</v>
       </c>
@@ -2855,7 +2848,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
         <v>104</v>
       </c>
@@ -2869,7 +2862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
         <v>104</v>
       </c>
@@ -2883,7 +2876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
         <v>105</v>
       </c>
@@ -2897,7 +2890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
         <v>105</v>
       </c>
@@ -2911,7 +2904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
         <v>106</v>
       </c>
@@ -2925,7 +2918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
         <v>106</v>
       </c>
@@ -2939,7 +2932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
         <v>107</v>
       </c>
@@ -2953,7 +2946,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
         <v>107</v>
       </c>
@@ -2967,7 +2960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
         <v>108</v>
       </c>
@@ -2981,7 +2974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>108</v>
       </c>
@@ -2995,7 +2988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
         <v>109</v>
       </c>
@@ -3009,7 +3002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
         <v>109</v>
       </c>
@@ -3023,7 +3016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
         <v>110</v>
       </c>
@@ -3037,7 +3030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
         <v>110</v>
       </c>
@@ -3051,7 +3044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
         <v>111</v>
       </c>
@@ -3065,7 +3058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
         <v>111</v>
       </c>
@@ -3079,7 +3072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
         <v>112</v>
       </c>
@@ -3093,7 +3086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
         <v>112</v>
       </c>
@@ -3107,7 +3100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
         <v>113</v>
       </c>
@@ -3121,7 +3114,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
         <v>113</v>
       </c>
@@ -3135,7 +3128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
         <v>114</v>
       </c>
@@ -3149,7 +3142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
         <v>114</v>
       </c>
@@ -3163,7 +3156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
         <v>115</v>
       </c>
@@ -3177,7 +3170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
         <v>115</v>
       </c>
@@ -3191,7 +3184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
         <v>116</v>
       </c>
@@ -3205,7 +3198,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
         <v>116</v>
       </c>
@@ -3219,7 +3212,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
         <v>117</v>
       </c>
@@ -3233,7 +3226,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
         <v>117</v>
       </c>
@@ -3247,7 +3240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
         <v>118</v>
       </c>
@@ -3261,7 +3254,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
         <v>118</v>
       </c>
@@ -3275,7 +3268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
         <v>120</v>
       </c>
@@ -3289,7 +3282,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
         <v>120</v>
       </c>
@@ -3303,7 +3296,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
         <v>121</v>
       </c>
@@ -3317,7 +3310,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
         <v>121</v>
       </c>
@@ -3331,7 +3324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
         <v>122</v>
       </c>
@@ -3345,7 +3338,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
         <v>122</v>
       </c>
@@ -3359,7 +3352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
         <v>123</v>
       </c>
@@ -3373,7 +3366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
         <v>123</v>
       </c>
@@ -3387,7 +3380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
         <v>124</v>
       </c>
@@ -3401,7 +3394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
         <v>124</v>
       </c>
@@ -3415,7 +3408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
         <v>125</v>
       </c>
@@ -3429,7 +3422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
         <v>125</v>
       </c>
@@ -3443,7 +3436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
         <v>126</v>
       </c>
@@ -3457,7 +3450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
         <v>126</v>
       </c>
@@ -3471,7 +3464,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
         <v>127</v>
       </c>
@@ -3485,7 +3478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
         <v>127</v>
       </c>
@@ -3499,7 +3492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
         <v>128</v>
       </c>
@@ -3513,7 +3506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
         <v>128</v>
       </c>
@@ -3527,7 +3520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
         <v>129</v>
       </c>
@@ -3541,7 +3534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
         <v>129</v>
       </c>
@@ -3555,7 +3548,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
         <v>130</v>
       </c>
@@ -3569,7 +3562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
         <v>130</v>
       </c>
@@ -3583,7 +3576,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
         <v>131</v>
       </c>
@@ -3597,7 +3590,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
         <v>131</v>
       </c>
@@ -3611,7 +3604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
         <v>132</v>
       </c>
@@ -3625,7 +3618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
         <v>132</v>
       </c>
@@ -3639,7 +3632,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
         <v>133</v>
       </c>
@@ -3653,7 +3646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
         <v>133</v>
       </c>
@@ -3667,7 +3660,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
         <v>135</v>
       </c>
@@ -3681,7 +3674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
         <v>135</v>
       </c>
@@ -3695,7 +3688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
         <v>136</v>
       </c>
@@ -3709,7 +3702,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
         <v>136</v>
       </c>
@@ -3723,7 +3716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
         <v>137</v>
       </c>
@@ -3737,7 +3730,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
         <v>137</v>
       </c>
@@ -3751,7 +3744,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
         <v>138</v>
       </c>
@@ -3765,7 +3758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="s">
         <v>138</v>
       </c>
@@ -3779,7 +3772,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
         <v>139</v>
       </c>
@@ -3793,7 +3786,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="s">
         <v>139</v>
       </c>
@@ -3807,7 +3800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="s">
         <v>140</v>
       </c>
@@ -3821,7 +3814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
         <v>140</v>
       </c>
@@ -3835,7 +3828,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
         <v>141</v>
       </c>
@@ -3849,7 +3842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="s">
         <v>141</v>
       </c>
@@ -3863,7 +3856,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
         <v>142</v>
       </c>
@@ -3877,7 +3870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="s">
         <v>142</v>
       </c>
@@ -3891,7 +3884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
         <v>143</v>
       </c>
@@ -3905,7 +3898,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="s">
         <v>143</v>
       </c>
@@ -3919,7 +3912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
         <v>144</v>
       </c>
@@ -3933,7 +3926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
         <v>144</v>
       </c>
@@ -3947,7 +3940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
         <v>145</v>
       </c>
@@ -3961,7 +3954,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="s">
         <v>145</v>
       </c>
@@ -3975,7 +3968,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
         <v>146</v>
       </c>
@@ -3989,7 +3982,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
         <v>146</v>
       </c>
@@ -4003,7 +3996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
         <v>147</v>
       </c>
@@ -4017,7 +4010,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="s">
         <v>147</v>
       </c>
@@ -4031,7 +4024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
         <v>148</v>
       </c>
@@ -4045,7 +4038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
         <v>148</v>
       </c>
@@ -4059,7 +4052,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
         <v>149</v>
       </c>
@@ -4073,7 +4066,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
         <v>149</v>
       </c>
@@ -4087,7 +4080,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="s">
         <v>150</v>
       </c>
@@ -4101,7 +4094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
         <v>150</v>
       </c>
@@ -4115,7 +4108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="s">
         <v>151</v>
       </c>
@@ -4129,7 +4122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="s">
         <v>151</v>
       </c>
@@ -4143,7 +4136,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="9" t="s">
         <v>152</v>
       </c>
@@ -4157,7 +4150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="9" t="s">
         <v>152</v>
       </c>
@@ -4171,7 +4164,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="s">
         <v>153</v>
       </c>
@@ -4185,7 +4178,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="s">
         <v>153</v>
       </c>
@@ -4199,7 +4192,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="9" t="s">
         <v>154</v>
       </c>
@@ -4213,7 +4206,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="9" t="s">
         <v>154</v>
       </c>
@@ -4227,7 +4220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="s">
         <v>155</v>
       </c>
@@ -4241,7 +4234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="9" t="s">
         <v>155</v>
       </c>
@@ -4255,7 +4248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="9" t="s">
         <v>156</v>
       </c>
@@ -4269,7 +4262,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="s">
         <v>156</v>
       </c>
@@ -4283,7 +4276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="s">
         <v>157</v>
       </c>
@@ -4297,7 +4290,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
         <v>157</v>
       </c>
@@ -4311,7 +4304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="s">
         <v>158</v>
       </c>
@@ -4325,7 +4318,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
         <v>158</v>
       </c>
@@ -4339,7 +4332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
         <v>159</v>
       </c>
@@ -4353,7 +4346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
         <v>159</v>
       </c>
@@ -4367,7 +4360,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="s">
         <v>160</v>
       </c>
@@ -4381,7 +4374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
         <v>160</v>
       </c>
@@ -4395,7 +4388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="s">
         <v>161</v>
       </c>
@@ -4409,7 +4402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="s">
         <v>161</v>
       </c>
@@ -4423,7 +4416,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="s">
         <v>162</v>
       </c>
@@ -4437,7 +4430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="s">
         <v>162</v>
       </c>
@@ -4451,7 +4444,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="s">
         <v>163</v>
       </c>
@@ -4465,7 +4458,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="9" t="s">
         <v>163</v>
       </c>
@@ -4479,7 +4472,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">
         <v>164</v>
       </c>
@@ -4493,7 +4486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="9" t="s">
         <v>164</v>
       </c>
@@ -4507,7 +4500,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="s">
         <v>165</v>
       </c>
@@ -4521,7 +4514,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="9" t="s">
         <v>165</v>
       </c>
@@ -4535,7 +4528,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
         <v>166</v>
       </c>
@@ -4549,7 +4542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
         <v>166</v>
       </c>
@@ -4563,7 +4556,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="s">
         <v>167</v>
       </c>
@@ -4577,7 +4570,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="s">
         <v>167</v>
       </c>
@@ -4591,7 +4584,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="s">
         <v>168</v>
       </c>
@@ -4605,7 +4598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
         <v>168</v>
       </c>
@@ -4619,7 +4612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
         <v>169</v>
       </c>
@@ -4633,7 +4626,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
         <v>169</v>
       </c>
@@ -4647,7 +4640,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
         <v>170</v>
       </c>
@@ -4661,7 +4654,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
         <v>170</v>
       </c>
@@ -4675,7 +4668,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="s">
         <v>171</v>
       </c>
@@ -4689,7 +4682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="s">
         <v>171</v>
       </c>
@@ -4703,7 +4696,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="s">
         <v>172</v>
       </c>
@@ -4717,7 +4710,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="s">
         <v>172</v>
       </c>
@@ -4731,7 +4724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="s">
         <v>173</v>
       </c>
@@ -4745,7 +4738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="s">
         <v>173</v>
       </c>
@@ -4759,7 +4752,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="s">
         <v>174</v>
       </c>
@@ -4773,7 +4766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="s">
         <v>174</v>
       </c>
@@ -4787,7 +4780,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="s">
         <v>175</v>
       </c>
@@ -4801,7 +4794,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="s">
         <v>175</v>
       </c>
@@ -4815,7 +4808,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
         <v>176</v>
       </c>
@@ -4829,7 +4822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="s">
         <v>176</v>
       </c>
@@ -4843,7 +4836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
         <v>177</v>
       </c>
@@ -4857,7 +4850,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="s">
         <v>177</v>
       </c>
@@ -4871,7 +4864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
         <v>178</v>
       </c>
@@ -4885,7 +4878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="s">
         <v>178</v>
       </c>
@@ -4899,7 +4892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="9" t="s">
         <v>179</v>
       </c>
@@ -4913,7 +4906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="s">
         <v>179</v>
       </c>
@@ -4927,7 +4920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="s">
         <v>180</v>
       </c>
@@ -4941,7 +4934,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="9" t="s">
         <v>180</v>
       </c>
@@ -4955,7 +4948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="s">
         <v>181</v>
       </c>
@@ -4969,7 +4962,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="s">
         <v>181</v>
       </c>
@@ -4983,7 +4976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="s">
         <v>182</v>
       </c>
@@ -4997,7 +4990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="s">
         <v>182</v>
       </c>
@@ -5011,7 +5004,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="s">
         <v>183</v>
       </c>
@@ -5025,7 +5018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="s">
         <v>183</v>
       </c>
@@ -5039,7 +5032,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="s">
         <v>184</v>
       </c>
@@ -5053,7 +5046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="9" t="s">
         <v>184</v>
       </c>
@@ -5067,7 +5060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="s">
         <v>185</v>
       </c>
@@ -5081,7 +5074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="s">
         <v>185</v>
       </c>
@@ -5095,7 +5088,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="s">
         <v>186</v>
       </c>
@@ -5109,7 +5102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="9" t="s">
         <v>186</v>
       </c>
@@ -5123,7 +5116,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="s">
         <v>187</v>
       </c>
@@ -5137,7 +5130,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="9" t="s">
         <v>187</v>
       </c>
@@ -5151,7 +5144,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="s">
         <v>188</v>
       </c>
@@ -5165,7 +5158,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
         <v>188</v>
       </c>
@@ -5179,7 +5172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="s">
         <v>189</v>
       </c>
@@ -5193,7 +5186,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="9" t="s">
         <v>189</v>
       </c>
@@ -5207,7 +5200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="s">
         <v>190</v>
       </c>
@@ -5221,7 +5214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="9" t="s">
         <v>190</v>
       </c>
@@ -5235,7 +5228,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="9" t="s">
         <v>191</v>
       </c>
@@ -5249,7 +5242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="9" t="s">
         <v>191</v>
       </c>
@@ -5263,7 +5256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="9" t="s">
         <v>192</v>
       </c>
@@ -5277,7 +5270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="9" t="s">
         <v>192</v>
       </c>
@@ -5291,7 +5284,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="9" t="s">
         <v>193</v>
       </c>
@@ -5305,7 +5298,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="9" t="s">
         <v>193</v>
       </c>
@@ -5319,7 +5312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="9" t="s">
         <v>194</v>
       </c>
@@ -5333,7 +5326,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="9" t="s">
         <v>194</v>
       </c>
@@ -5347,7 +5340,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="9" t="s">
         <v>195</v>
       </c>
@@ -5361,7 +5354,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="9" t="s">
         <v>195</v>
       </c>
@@ -5375,7 +5368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="9" t="s">
         <v>196</v>
       </c>
@@ -5389,7 +5382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="9" t="s">
         <v>196</v>
       </c>
@@ -5403,7 +5396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="9" t="s">
         <v>197</v>
       </c>
@@ -5417,7 +5410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="9" t="s">
         <v>197</v>
       </c>
@@ -5431,7 +5424,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="9" t="s">
         <v>198</v>
       </c>
@@ -5445,7 +5438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="9" t="s">
         <v>198</v>
       </c>
@@ -5459,7 +5452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="9" t="s">
         <v>199</v>
       </c>
@@ -5473,7 +5466,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="9" t="s">
         <v>199</v>
       </c>
@@ -5487,7 +5480,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="9" t="s">
         <v>200</v>
       </c>
@@ -5501,7 +5494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="9" t="s">
         <v>200</v>
       </c>
@@ -5515,7 +5508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="9" t="s">
         <v>201</v>
       </c>
@@ -5529,7 +5522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="9" t="s">
         <v>201</v>
       </c>
@@ -5543,7 +5536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="9" t="s">
         <v>202</v>
       </c>
@@ -5557,7 +5550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="9" t="s">
         <v>202</v>
       </c>
@@ -5571,7 +5564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="9" t="s">
         <v>203</v>
       </c>
@@ -5585,7 +5578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="9" t="s">
         <v>203</v>
       </c>
@@ -5599,7 +5592,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="9" t="s">
         <v>204</v>
       </c>
@@ -5613,7 +5606,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="9" t="s">
         <v>204</v>
       </c>
@@ -5627,7 +5620,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="9" t="s">
         <v>205</v>
       </c>
@@ -5641,7 +5634,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="9" t="s">
         <v>205</v>
       </c>
@@ -5655,7 +5648,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="9" t="s">
         <v>206</v>
       </c>
@@ -5669,7 +5662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="9" t="s">
         <v>206</v>
       </c>
@@ -5683,7 +5676,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="9" t="s">
         <v>207</v>
       </c>
@@ -5697,7 +5690,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="9" t="s">
         <v>207</v>
       </c>
@@ -5711,7 +5704,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="9" t="s">
         <v>208</v>
       </c>
@@ -5725,7 +5718,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="9" t="s">
         <v>208</v>
       </c>
@@ -5753,7 +5746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="9" t="s">
         <v>209</v>
       </c>
@@ -5767,7 +5760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="9" t="s">
         <v>210</v>
       </c>
@@ -5809,7 +5802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="9" t="s">
         <v>212</v>
       </c>
@@ -5823,7 +5816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="9" t="s">
         <v>213</v>
       </c>
@@ -5851,7 +5844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="9" t="s">
         <v>214</v>
       </c>
@@ -5879,7 +5872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="9" t="s">
         <v>215</v>
       </c>
@@ -5907,7 +5900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="9" t="s">
         <v>216</v>
       </c>
@@ -5921,7 +5914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="9" t="s">
         <v>216</v>
       </c>
@@ -5935,7 +5928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="9" t="s">
         <v>217</v>
       </c>
@@ -5949,7 +5942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="9" t="s">
         <v>217</v>
       </c>
@@ -5963,7 +5956,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="9" t="s">
         <v>218</v>
       </c>
@@ -5977,7 +5970,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="9" t="s">
         <v>218</v>
       </c>
@@ -5991,7 +5984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="9" t="s">
         <v>220</v>
       </c>
@@ -6005,7 +5998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="9" t="s">
         <v>220</v>
       </c>
@@ -6019,7 +6012,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="9" t="s">
         <v>221</v>
       </c>
@@ -6033,7 +6026,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="9" t="s">
         <v>221</v>
       </c>
@@ -6047,7 +6040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="9" t="s">
         <v>222</v>
       </c>
@@ -6061,7 +6054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="9" t="s">
         <v>222</v>
       </c>
@@ -6075,7 +6068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="9" t="s">
         <v>223</v>
       </c>
@@ -6089,7 +6082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="9" t="s">
         <v>223</v>
       </c>
@@ -6103,7 +6096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="9" t="s">
         <v>224</v>
       </c>
@@ -6117,7 +6110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="9" t="s">
         <v>224</v>
       </c>
@@ -6131,7 +6124,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="9" t="s">
         <v>225</v>
       </c>
@@ -6145,7 +6138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="9" t="s">
         <v>225</v>
       </c>
@@ -6159,7 +6152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="9" t="s">
         <v>226</v>
       </c>
@@ -6173,7 +6166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="9" t="s">
         <v>226</v>
       </c>
@@ -6187,7 +6180,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="9" t="s">
         <v>227</v>
       </c>
@@ -6201,7 +6194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="9" t="s">
         <v>227</v>
       </c>
@@ -6215,7 +6208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="9" t="s">
         <v>228</v>
       </c>
@@ -6229,7 +6222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="9" t="s">
         <v>228</v>
       </c>
@@ -6243,7 +6236,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="9" t="s">
         <v>229</v>
       </c>
@@ -6257,7 +6250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="9" t="s">
         <v>229</v>
       </c>
@@ -6271,7 +6264,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="9" t="s">
         <v>230</v>
       </c>
@@ -6285,7 +6278,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="9" t="s">
         <v>230</v>
       </c>
@@ -6299,7 +6292,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="9" t="s">
         <v>231</v>
       </c>
@@ -6313,7 +6306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="9" t="s">
         <v>231</v>
       </c>
@@ -6327,7 +6320,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="9" t="s">
         <v>232</v>
       </c>
@@ -6341,7 +6334,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="9" t="s">
         <v>232</v>
       </c>
@@ -6355,7 +6348,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="9" t="s">
         <v>233</v>
       </c>
@@ -6369,7 +6362,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="9" t="s">
         <v>233</v>
       </c>
@@ -6383,7 +6376,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="9" t="s">
         <v>234</v>
       </c>
@@ -6397,7 +6390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="9" t="s">
         <v>234</v>
       </c>
@@ -6411,7 +6404,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="9" t="s">
         <v>235</v>
       </c>
@@ -6425,7 +6418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="9" t="s">
         <v>235</v>
       </c>
@@ -6439,7 +6432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="9" t="s">
         <v>236</v>
       </c>
@@ -6453,7 +6446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="9" t="s">
         <v>236</v>
       </c>
@@ -6467,7 +6460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="9" t="s">
         <v>237</v>
       </c>
@@ -6481,7 +6474,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="9" t="s">
         <v>237</v>
       </c>
@@ -6495,7 +6488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="9" t="s">
         <v>238</v>
       </c>
@@ -6509,7 +6502,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="9" t="s">
         <v>238</v>
       </c>
@@ -6523,7 +6516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="9" t="s">
         <v>239</v>
       </c>
@@ -6537,7 +6530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="9" t="s">
         <v>239</v>
       </c>
@@ -6551,7 +6544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="9" t="s">
         <v>240</v>
       </c>
@@ -6565,7 +6558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="9" t="s">
         <v>240</v>
       </c>
@@ -6579,7 +6572,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="9" t="s">
         <v>241</v>
       </c>
@@ -6593,7 +6586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="9" t="s">
         <v>241</v>
       </c>
@@ -6607,7 +6600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="9" t="s">
         <v>242</v>
       </c>
@@ -6621,7 +6614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="9" t="s">
         <v>242</v>
       </c>
@@ -6635,7 +6628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="9" t="s">
         <v>243</v>
       </c>
@@ -6649,7 +6642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="9" t="s">
         <v>243</v>
       </c>
@@ -6663,7 +6656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="9" t="s">
         <v>244</v>
       </c>
@@ -6677,7 +6670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="9" t="s">
         <v>244</v>
       </c>
@@ -6691,7 +6684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="9" t="s">
         <v>245</v>
       </c>
@@ -6705,7 +6698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="9" t="s">
         <v>245</v>
       </c>
@@ -6719,7 +6712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="9" t="s">
         <v>246</v>
       </c>
@@ -6733,7 +6726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="9" t="s">
         <v>246</v>
       </c>
@@ -6747,7 +6740,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="9" t="s">
         <v>247</v>
       </c>
@@ -6761,7 +6754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="9" t="s">
         <v>247</v>
       </c>
@@ -6775,7 +6768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="9" t="s">
         <v>248</v>
       </c>
@@ -6789,7 +6782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="9" t="s">
         <v>248</v>
       </c>
@@ -6803,7 +6796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="9" t="s">
         <v>249</v>
       </c>
@@ -6817,7 +6810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="9" t="s">
         <v>249</v>
       </c>
@@ -6831,7 +6824,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="9" t="s">
         <v>250</v>
       </c>
@@ -6845,7 +6838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="9" t="s">
         <v>250</v>
       </c>
@@ -6859,7 +6852,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="9" t="s">
         <v>251</v>
       </c>
@@ -6873,7 +6866,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="9" t="s">
         <v>251</v>
       </c>
@@ -6887,7 +6880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="9" t="s">
         <v>252</v>
       </c>
@@ -6901,7 +6894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="9" t="s">
         <v>252</v>
       </c>
@@ -6915,7 +6908,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="9" t="s">
         <v>253</v>
       </c>
@@ -6929,7 +6922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="9" t="s">
         <v>253</v>
       </c>
@@ -6943,7 +6936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="9" t="s">
         <v>254</v>
       </c>
@@ -6957,7 +6950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="9" t="s">
         <v>254</v>
       </c>
@@ -6971,7 +6964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="9" t="s">
         <v>255</v>
       </c>
@@ -6985,7 +6978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="9" t="s">
         <v>255</v>
       </c>
@@ -6999,7 +6992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="9" t="s">
         <v>256</v>
       </c>
@@ -7013,7 +7006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="10" t="s">
         <v>256</v>
       </c>
@@ -7362,13 +7355,6 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D335">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Adjustment Clearing"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7376,7 +7362,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
